--- a/vagrant.xlsx
+++ b/vagrant.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="download" sheetId="1" r:id="rId1"/>
     <sheet name="GroupID文字化け" sheetId="2" r:id="rId2"/>
+    <sheet name="timout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>https://www.virtualbox.org/wiki/Downloads</t>
   </si>
@@ -57,6 +57,32 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> m-k8s: SSH auth method: private key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    m-k8s: Warning: Connection aborted. Retrying...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    m-k8s: Warning: Connection reset. Retrying...</t>
+  </si>
+  <si>
+    <t>1. Hyper-V チェック、仮想フラットフォーム確認</t>
+    <rPh sb="16" eb="18">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. ゴミ削除</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2250,6 +2276,517 @@
             <a:t>できたぞ！！！</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>408914</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>159434</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2514600"/>
+          <a:ext cx="5285714" cy="4685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="액자 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="883920" y="4290060"/>
+          <a:ext cx="2887980" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1389"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="액자 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="883920" y="6172200"/>
+          <a:ext cx="2026920" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1389"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>16762</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>86404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7879080"/>
+          <a:ext cx="18304762" cy="9809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>607924</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>90716</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18105120"/>
+          <a:ext cx="13409524" cy="5790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>215152</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53787</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="액자 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2653552" y="12389224"/>
+          <a:ext cx="7153835" cy="815788"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1389"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>591670</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="액자 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2554941" y="20511246"/>
+          <a:ext cx="6571129" cy="322730"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1389"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>484095</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="사각형 설명선 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9628095" y="11985813"/>
+          <a:ext cx="887506" cy="430305"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -44065"/>
+            <a:gd name="adj2" fmla="val 75000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>71718</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="사각형 설명선 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8937812" y="20089906"/>
+          <a:ext cx="887506" cy="430305"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -44065"/>
+            <a:gd name="adj2" fmla="val 75000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>削除</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2604,7 +3141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B164:B166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A250" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AC259" sqref="AC259"/>
     </sheetView>
   </sheetViews>
@@ -2626,4 +3163,60 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:B46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/vagrant.xlsx
+++ b/vagrant.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="download" sheetId="1" r:id="rId1"/>
     <sheet name="GroupID文字化け" sheetId="2" r:id="rId2"/>
     <sheet name="timout" sheetId="3" r:id="rId3"/>
+    <sheet name="vagrant up error" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>https://www.virtualbox.org/wiki/Downloads</t>
   </si>
@@ -83,6 +84,29 @@
     <t>2. ゴミ削除</t>
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\Windows\System32\WindowsPowerShell\v1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記エラーの場合、Powershellを環境変数に追加してあげる</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2790,6 +2814,125 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>103009</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>166697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="167640"/>
+          <a:ext cx="14123809" cy="7542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>246933</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>6136</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8977745"/>
+          <a:ext cx="5733333" cy="6323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>103009</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>61402</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16292945"/>
+          <a:ext cx="14123809" cy="7542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3169,7 +3312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3219,4 +3362,32 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B50:B53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q77" sqref="Q77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>